--- a/AAII_Financials/Yearly/TOGL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOGL_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/TOGL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOGL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>TOGL</t>
   </si>
@@ -2144,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4200</v>
+        <v>8200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2210,7 +2210,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2311,23 +2311,23 @@
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -2621,7 +2621,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24100</v>
+        <v>-24200</v>
       </c>
       <c r="E72" s="3">
         <v>-14400</v>
@@ -2753,7 +2753,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="E76" s="3">
         <v>2500</v>

--- a/AAII_Financials/Yearly/TOGL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOGL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>TOGL</t>
   </si>
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8800</v>
+        <v>5900</v>
       </c>
       <c r="E8" s="3">
         <v>1300</v>
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5900</v>
+        <v>1700</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="E10" s="3">
         <v>1100</v>
@@ -830,8 +830,8 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>800</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -975,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21700</v>
+        <v>19200</v>
       </c>
       <c r="E17" s="3">
         <v>15100</v>
@@ -1008,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="E18" s="3">
         <v>-13800</v>
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-9600</v>
+        <v>-10000</v>
       </c>
       <c r="E21" s="3">
         <v>-13600</v>
@@ -1106,8 +1106,8 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1155,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9600</v>
+        <v>-10100</v>
       </c>
       <c r="E23" s="3">
         <v>-13600</v>
@@ -1254,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9800</v>
+        <v>-10200</v>
       </c>
       <c r="E26" s="3">
         <v>-13600</v>
@@ -1287,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9700</v>
+        <v>-10300</v>
       </c>
       <c r="E27" s="3">
         <v>-13600</v>
@@ -1485,7 +1485,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9700</v>
+        <v>-10300</v>
       </c>
       <c r="E33" s="3">
         <v>-13600</v>
@@ -1551,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9700</v>
+        <v>-10300</v>
       </c>
       <c r="E35" s="3">
         <v>-13600</v>
@@ -1784,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1200</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2176,8 +2176,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -2857,7 +2857,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9700</v>
+        <v>-10300</v>
       </c>
       <c r="E81" s="3">
         <v>-13600</v>
@@ -2922,8 +2922,8 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3267,8 +3267,8 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3447,8 +3447,8 @@
       <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>

--- a/AAII_Financials/Yearly/TOGL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TOGL_YR_FIN.xlsx
@@ -975,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19200</v>
+        <v>18200</v>
       </c>
       <c r="E17" s="3">
         <v>15100</v>
@@ -1008,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13300</v>
+        <v>-12300</v>
       </c>
       <c r="E18" s="3">
         <v>-13800</v>
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-10000</v>
+        <v>-9000</v>
       </c>
       <c r="E21" s="3">
         <v>-13600</v>
@@ -1155,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10100</v>
+        <v>-9100</v>
       </c>
       <c r="E23" s="3">
         <v>-13600</v>
@@ -1254,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10200</v>
+        <v>-9300</v>
       </c>
       <c r="E26" s="3">
         <v>-13600</v>
@@ -1287,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10300</v>
+        <v>-9300</v>
       </c>
       <c r="E27" s="3">
         <v>-13600</v>
@@ -1485,7 +1485,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10300</v>
+        <v>-9300</v>
       </c>
       <c r="E33" s="3">
         <v>-13600</v>
@@ -1551,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10300</v>
+        <v>-9300</v>
       </c>
       <c r="E35" s="3">
         <v>-13600</v>
@@ -2857,7 +2857,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10300</v>
+        <v>-9300</v>
       </c>
       <c r="E81" s="3">
         <v>-13600</v>
